--- a/split_data/input/all_cities/taipei.xlsx
+++ b/split_data/input/all_cities/taipei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I639"/>
+  <dimension ref="A1:I644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>闖紅燈</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -5319,7 +5319,7 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>堤外便道往北﹝忠孝橋至華江橋﹞</t>
+          <t>堤外便道往南﹝忠孝橋至華江橋﹞</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -5340,7 +5340,7 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>堤外便道往南﹝忠孝橋至華江橋﹞</t>
+          <t>華江橋機車道(往板橋)</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -5361,7 +5361,7 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>華江橋機車道(往板橋)</t>
+          <t>艋舺大道(往東)</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -5382,7 +5382,7 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>艋舺大道(往東)</t>
+          <t>艋舺大道(往西)</t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -5403,7 +5403,7 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>艋舺大道(往西)</t>
+          <t>環河快速道路光復橋至華翠橋間（南往北）</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -5424,7 +5424,7 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>環河快速道路光復橋至華翠橋間（南往北）</t>
+          <t>環河快速道路光復橋至華中橋間（北往南）</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -5445,7 +5445,7 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>環河快速道路光復橋至華中橋間（北往南）</t>
+          <t>水源快速道路往南（環南果菜市場上方）</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -5466,7 +5466,7 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>水源快速道路往南（環南果菜市場上方）</t>
+          <t>華中橋往台北</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -5487,7 +5487,7 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>華中橋往台北</t>
+          <t>華中橋往中和</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -5508,7 +5508,7 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>華中橋往中和</t>
+          <t>環河南路一段﹝往南﹞</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -5529,7 +5529,7 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>環河南路一段﹝往南﹞</t>
+          <t>環河快速道路往北（華中橋與光復橋間）</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -5550,7 +5550,7 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>環河快速道路往北（華中橋與光復橋間）</t>
+          <t>水源快速道路往新店（果菜市場上方）</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -5571,7 +5571,7 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>水源快速道路往新店（果菜市場上方）</t>
+          <t>水源快速道路往南（馬場町紀念公園旁）</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -5592,7 +5592,7 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>水源快速道路往南（馬場町紀念公園旁）</t>
+          <t>堤外便道南往北（華江橋至華中橋）</t>
         </is>
       </c>
       <c r="G190" t="n">
@@ -5613,7 +5613,7 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>堤外便道南往北（華江橋至華中橋）</t>
+          <t>堤外便道北往南（華江橋至華中橋）</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -5634,7 +5634,7 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>堤外便道北往南（華江橋至華中橋）</t>
+          <t>環河快速道路華翠橋至光復橋間（北往南）</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -5655,7 +5655,7 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>環河快速道路華翠橋至光復橋間（北往南）</t>
+          <t>環快往北﹝環河南路二段250巷底﹞</t>
         </is>
       </c>
       <c r="G193" t="n">
@@ -5676,7 +5676,7 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>環快往北﹝環河南路二段250巷底﹞</t>
+          <t>環河南路一段﹝往北﹞</t>
         </is>
       </c>
       <c r="G194" t="n">
@@ -5697,7 +5697,7 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>環河南路一段﹝往北﹞</t>
+          <t>環河快速道路往北（家禽市場旁）</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -5718,7 +5718,7 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>環河快速道路往北（家禽市場旁）</t>
+          <t>萬大路往北（富民路口）</t>
         </is>
       </c>
       <c r="G196" t="n">
@@ -5739,7 +5739,7 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>萬大路往北（富民路口）</t>
+          <t>西園路2段、西藏路口（北往南）</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -5760,7 +5760,7 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>西園路2段、西藏路口（北往南）</t>
+          <t>和平西路三段﹝東往西﹞</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -5781,7 +5781,7 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>和平西路三段﹝東往西﹞</t>
+          <t>和平西路三段﹝西往東﹞</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -5802,7 +5802,7 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>和平西路三段﹝西往東﹞</t>
+          <t>西園路二段、西園路二段196巷口（北往南）</t>
         </is>
       </c>
       <c r="G200" t="n">
@@ -5823,7 +5823,7 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>西園路二段、西園路二段196巷口（北往南）</t>
+          <t>桂林路246巷往北</t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -5844,7 +5844,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>桂林路246巷往北</t>
+          <t>忠孝西路二段（往東）</t>
         </is>
       </c>
       <c r="G202" t="n">
@@ -5865,7 +5865,7 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>忠孝西路二段（往東）</t>
+          <t>環河南路一段348巷</t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -5886,7 +5886,7 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>環河南路一段348巷</t>
+          <t>艋舺大道（大理國小前）</t>
         </is>
       </c>
       <c r="G204" t="n">
@@ -5907,7 +5907,7 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>艋舺大道（大理國小前）</t>
+          <t>民權東、建國北路口</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -5928,7 +5928,7 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>民權東、建國北路口</t>
+          <t>濱江街</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -5949,7 +5949,7 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>濱江街</t>
+          <t>建國高架道長春路入口(往南)</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -5970,7 +5970,7 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>建國高架道長春路入口(往南)</t>
+          <t>新生高架道往南民族東路上方</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -5991,7 +5991,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>新生高架道往南民族東路上方</t>
+          <t>堤頂大道二段246巷口（北向南）</t>
         </is>
       </c>
       <c r="G209" t="n">
@@ -6012,7 +6012,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>堤頂大道二段246巷口（北向南）</t>
+          <t>民生東路遼寧街口西往東</t>
         </is>
       </c>
       <c r="G210" t="n">
@@ -6033,7 +6033,7 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>民生東路遼寧街口西往東</t>
+          <t>中山北民生東﹝北向南﹞</t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -6054,7 +6054,7 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>中山北民生東﹝北向南﹞</t>
+          <t>明水路325號前﹝北安國中前往東﹞</t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -6075,7 +6075,7 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>明水路325號前﹝北安國中前往東﹞</t>
+          <t>明水路325號前﹝北安國中前往西﹞</t>
         </is>
       </c>
       <c r="G213" t="n">
@@ -6096,7 +6096,7 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>明水路325號前﹝北安國中前往西﹞</t>
+          <t>中山北、長春路口（往北）</t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -6117,7 +6117,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>中山北、長春路口（往北）</t>
+          <t>復興北路車行地下道（南向北）</t>
         </is>
       </c>
       <c r="G215" t="n">
@@ -6138,7 +6138,7 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>復興北路車行地下道（南向北）</t>
+          <t>樂群一路金泰公園（西向東）</t>
         </is>
       </c>
       <c r="G216" t="n">
@@ -6159,7 +6159,7 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>樂群一路金泰公園（西向東）</t>
+          <t>明水路北安路口</t>
         </is>
       </c>
       <c r="G217" t="n">
@@ -6180,7 +6180,7 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>明水路北安路口</t>
+          <t>民生東路遼寧街口東往西</t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -6201,7 +6201,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>民生東路遼寧街口東往西</t>
+          <t>大佳河濱公園右岸中山新橋下方</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -6222,7 +6222,7 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>大佳河濱公園右岸中山新橋下方</t>
+          <t>基隆河10號水門左側建國抽水站</t>
         </is>
       </c>
       <c r="G220" t="n">
@@ -6243,7 +6243,7 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>基隆河10號水門左側建國抽水站</t>
+          <t>松江路民族東路(往南)</t>
         </is>
       </c>
       <c r="G221" t="n">
@@ -6264,7 +6264,7 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>松江路民族東路(往南)</t>
+          <t>建國北、長安東路口</t>
         </is>
       </c>
       <c r="G222" t="n">
@@ -6285,7 +6285,7 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>建國北、長安東路口</t>
+          <t>松江路農安街</t>
         </is>
       </c>
       <c r="G223" t="n">
@@ -6306,7 +6306,7 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>松江路農安街</t>
+          <t>建國北路與農安街﹝往南﹞</t>
         </is>
       </c>
       <c r="G224" t="n">
@@ -6327,7 +6327,7 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>建國北路與農安街﹝往南﹞</t>
+          <t>民生東路復興北路</t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -6348,7 +6348,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>民生東路復興北路</t>
+          <t>市民高架道往西（建國匝道上方）</t>
         </is>
       </c>
       <c r="G226" t="n">
@@ -6369,7 +6369,7 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>市民高架道往西（建國匝道上方）</t>
+          <t>明水路411號</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -6390,7 +6390,7 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>明水路411號</t>
+          <t>市民大道一段</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -6411,7 +6411,7 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>市民大道一段</t>
+          <t>市民大道二段往西（長安東路一段30巷至52巷）</t>
         </is>
       </c>
       <c r="G229" t="n">
@@ -6432,7 +6432,7 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>市民大道二段往西（長安東路一段30巷至52巷）</t>
+          <t>民權東路三段</t>
         </is>
       </c>
       <c r="G230" t="n">
@@ -6453,7 +6453,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>民權東路三段</t>
+          <t>民族東路新生公園前</t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -6474,7 +6474,7 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>民族東路新生公園前</t>
+          <t>樂群一路（東向西）</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -6495,7 +6495,7 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>樂群一路（東向西）</t>
+          <t>新生高架道往北（民族東路上方）</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -6516,7 +6516,7 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>新生高架道往北（民族東路上方）</t>
+          <t>新生高架道往北（民權東路上方）</t>
         </is>
       </c>
       <c r="G234" t="n">
@@ -6537,7 +6537,7 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>新生高架道往北（民權東路上方）</t>
+          <t>新生高架道往北（民生東路上方）</t>
         </is>
       </c>
       <c r="G235" t="n">
@@ -6558,7 +6558,7 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>新生高架道往北（民生東路上方）</t>
+          <t>林森北路與市民大道（往北）</t>
         </is>
       </c>
       <c r="G236" t="n">
@@ -6579,7 +6579,7 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>林森北路與市民大道（往北）</t>
+          <t>林森北路與市民大道（往南）</t>
         </is>
       </c>
       <c r="G237" t="n">
@@ -6600,7 +6600,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>林森北路與市民大道（往南）</t>
+          <t>長春路與建國北路(往北)</t>
         </is>
       </c>
       <c r="G238" t="n">
@@ -6621,7 +6621,7 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>長春路與建國北路(往北)</t>
+          <t>長春路與建國北路(往東)</t>
         </is>
       </c>
       <c r="G239" t="n">
@@ -6642,7 +6642,7 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>長春路與建國北路(往東)</t>
+          <t>市民大道與林森北路（往東）</t>
         </is>
       </c>
       <c r="G240" t="n">
@@ -6663,7 +6663,7 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>市民大道與林森北路（往東）</t>
+          <t>北安路305號（海軍總部前）</t>
         </is>
       </c>
       <c r="G241" t="n">
@@ -6684,7 +6684,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>北安路305號（海軍總部前）</t>
+          <t>新生高架道、民權東路匝道（往北）</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -6705,7 +6705,7 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>新生高架道、民權東路匝道（往北）</t>
+          <t>建國高架道南京東路匝道往北</t>
         </is>
       </c>
       <c r="G243" t="n">
@@ -6726,7 +6726,7 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>建國高架道南京東路匝道往北</t>
+          <t>北安路821巷前（往大直方向）</t>
         </is>
       </c>
       <c r="G244" t="n">
@@ -6747,7 +6747,7 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>北安路821巷前（往大直方向）</t>
+          <t>北安路821巷前（往內湖方向）</t>
         </is>
       </c>
       <c r="G245" t="n">
@@ -6768,7 +6768,7 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>北安路821巷前（往內湖方向）</t>
+          <t>明水路419號前（往內湖方向）</t>
         </is>
       </c>
       <c r="G246" t="n">
@@ -6789,7 +6789,7 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>明水路419號前（往內湖方向）</t>
+          <t>北安路、大直街（北往南）</t>
         </is>
       </c>
       <c r="G247" t="n">
@@ -6810,7 +6810,7 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>北安路、大直街（北往南）</t>
+          <t>民權東路二段</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -6831,7 +6831,7 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>民權東路二段</t>
+          <t>中山北路二段45巷口（南往北）</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -6852,7 +6852,7 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>中山北路二段45巷口（南往北）</t>
+          <t>北安路458巷（北往南）</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -6873,7 +6873,7 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>北安路458巷（北往南）</t>
+          <t>中山北路與民族東路（往北）</t>
         </is>
       </c>
       <c r="G251" t="n">
@@ -6894,7 +6894,7 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>中山北路與民族東路（往北）</t>
+          <t>八德路二段300巷</t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -6915,7 +6915,7 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>八德路二段300巷</t>
+          <t>民族東路、建國北路（往東）</t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -6936,7 +6936,7 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>民族東路、建國北路（往東）</t>
+          <t>建國高架道和平東路上方</t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -6957,7 +6957,7 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>建國高架道和平東路上方</t>
+          <t>市民大道三段</t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -6978,7 +6978,7 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>市民大道三段</t>
+          <t>辛亥路三段往西</t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -6999,7 +6999,7 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>辛亥路三段往西</t>
+          <t>基隆路四段</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -7020,7 +7020,7 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>基隆路四段</t>
+          <t>敦化南路二段﹝往南慢車道﹞</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -7041,7 +7041,7 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>敦化南路二段﹝往南慢車道﹞</t>
+          <t>基隆路三段﹝往南﹞</t>
         </is>
       </c>
       <c r="G259" t="n">
@@ -7062,7 +7062,7 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>基隆路三段﹝往南﹞</t>
+          <t>建國高架市立圖書館上方﹝往北﹞</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -7083,7 +7083,7 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>建國高架市立圖書館上方﹝往北﹞</t>
+          <t>建國高架道仁愛路上方（往北）</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -7104,7 +7104,7 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>建國高架道仁愛路上方（往北）</t>
+          <t>忠孝東路三段往西（復興至建國）</t>
         </is>
       </c>
       <c r="G262" t="n">
@@ -7125,7 +7125,7 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>忠孝東路三段往西（復興至建國）</t>
+          <t>基隆路二段往北（敦化至和平）</t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -7146,7 +7146,7 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>基隆路二段往北（敦化至和平）</t>
+          <t>和平東路三段往東（臥龍至敦化南）</t>
         </is>
       </c>
       <c r="G264" t="n">
@@ -7167,7 +7167,7 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>和平東路三段往東（臥龍至敦化南）</t>
+          <t>忠孝東路四段77巷口（東向西）</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -7188,7 +7188,7 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>忠孝東路四段77巷口（東向西）</t>
+          <t>和平東路二段（往東）</t>
         </is>
       </c>
       <c r="G266" t="n">
@@ -7209,7 +7209,7 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>和平東路二段（往東）</t>
+          <t>市民大道四段（往東）</t>
         </is>
       </c>
       <c r="G267" t="n">
@@ -7230,7 +7230,7 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>市民大道四段（往東）</t>
+          <t>辛亥路三段往東</t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -7251,7 +7251,7 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>辛亥路三段往東</t>
+          <t>基隆路二段（往南）</t>
         </is>
       </c>
       <c r="G269" t="n">
@@ -7272,7 +7272,7 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>基隆路二段（往南）</t>
+          <t>敦化南路一段295巷22號</t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -7293,7 +7293,7 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>敦化南路一段295巷22號</t>
+          <t>信義路四段184號</t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -7314,7 +7314,7 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>信義路四段184號</t>
+          <t>基隆路4段41巷68弄2號</t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -7335,7 +7335,7 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>基隆路4段41巷68弄2號</t>
+          <t>溫州街75號</t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -7356,7 +7356,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>溫州街75號</t>
+          <t>基隆路3段155巷57號前</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -7377,7 +7377,7 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>基隆路3段155巷57號前</t>
+          <t>金山南路銅山街﹝往北﹞</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -7398,7 +7398,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>金山南路銅山街﹝往北﹞</t>
+          <t>中山南路濟南路﹝往北﹞</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -7419,7 +7419,7 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>中山南路濟南路﹝往北﹞</t>
+          <t>中華路貴陽街﹝往北﹞</t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -7440,7 +7440,7 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>中華路貴陽街﹝往北﹞</t>
+          <t>中華路一段53號前（右側道）</t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -7461,7 +7461,7 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>中華路一段53號前（右側道）</t>
+          <t>中華路一段53號前（快車道）</t>
         </is>
       </c>
       <c r="G279" t="n">
@@ -7482,7 +7482,7 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>中華路一段53號前（快車道）</t>
+          <t>仁愛路二段61號前（右側道）</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -7503,7 +7503,7 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>仁愛路二段61號前（右側道）</t>
+          <t>中山南路與愛國西路</t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -7524,7 +7524,7 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>中山南路與愛國西路</t>
+          <t>忠孝東路與林森南路</t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -7545,7 +7545,7 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>忠孝東路與林森南路</t>
+          <t>中山南路往南（濟南—徐州）（左側道）</t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -7566,7 +7566,7 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>中山南路往南（濟南—徐州）（左側道）</t>
+          <t>中山南路往南（濟南—徐州）（右側道）</t>
         </is>
       </c>
       <c r="G284" t="n">
@@ -7587,7 +7587,7 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>中山南路往南（濟南—徐州）（右側道）</t>
+          <t>市民高架道往東（近中山北路上方）</t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -7608,7 +7608,7 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>市民高架道往東（近中山北路上方）</t>
+          <t>忠孝東路一段往西</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -7629,7 +7629,7 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>忠孝東路一段往西</t>
+          <t>市民大道平面﹝林森(cid:711)金山北﹞</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -7650,7 +7650,7 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>市民大道平面﹝林森─金山北﹞</t>
+          <t>金山南路(信義路(cid:711)忠孝東)</t>
         </is>
       </c>
       <c r="G288" t="n">
@@ -7671,7 +7671,7 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>金山南路(信義路─忠孝東)</t>
+          <t>中華路一段右側道往北</t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -7692,7 +7692,7 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>中華路一段右側道往北</t>
+          <t>忠孝東路二段﹝往東﹞</t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -7713,7 +7713,7 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>忠孝東路二段﹝往東﹞</t>
+          <t>忠孝東路二段﹝往西﹞</t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -7734,7 +7734,7 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>忠孝東路二段﹝往西﹞</t>
+          <t>忠孝東路一段﹝往東﹞</t>
         </is>
       </c>
       <c r="G292" t="n">
@@ -7755,7 +7755,7 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>忠孝東路一段﹝往東﹞</t>
+          <t>市民大道（西向東）</t>
         </is>
       </c>
       <c r="G293" t="n">
@@ -7776,7 +7776,7 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>市民大道（西向東）</t>
+          <t>市民大道（東向西）</t>
         </is>
       </c>
       <c r="G294" t="n">
@@ -7797,7 +7797,7 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>市民大道（東向西）</t>
+          <t>中華路快車道(往北)</t>
         </is>
       </c>
       <c r="G295" t="n">
@@ -7818,7 +7818,7 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>中華路快車道(往北)</t>
+          <t>忠孝西路﹝往東﹞</t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -7839,7 +7839,7 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>忠孝西路﹝往東﹞</t>
+          <t>忠孝西路﹝往西﹞</t>
         </is>
       </c>
       <c r="G297" t="n">
@@ -7860,7 +7860,7 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>忠孝西路﹝往西﹞</t>
+          <t>愛國西路(右側道)</t>
         </is>
       </c>
       <c r="G298" t="n">
@@ -7881,7 +7881,7 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>愛國西路(右側道)</t>
+          <t>仁愛路二段61號</t>
         </is>
       </c>
       <c r="G299" t="n">
@@ -7902,7 +7902,7 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>仁愛路二段61號</t>
+          <t>中山南路（徐州→青島）往北</t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -7923,7 +7923,7 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>中山南路（徐州→青島）往北</t>
+          <t>中山南路（青島→徐州）往南</t>
         </is>
       </c>
       <c r="G301" t="n">
@@ -7944,7 +7944,7 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>中山南路（青島→徐州）往南</t>
+          <t>重慶南路一段124號前（對面）</t>
         </is>
       </c>
       <c r="G302" t="n">
@@ -7965,7 +7965,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>重慶南路一段124號前（對面）</t>
+          <t>仁愛路一段（東往西）</t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -7986,7 +7986,7 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>仁愛路一段（東往西）</t>
+          <t>中山南路往北自由廣場前右側道</t>
         </is>
       </c>
       <c r="G304" t="n">
@@ -8007,7 +8007,7 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>中山南路往北自由廣場前右側道</t>
+          <t>中山南路往北自由廣場前左側道</t>
         </is>
       </c>
       <c r="G305" t="n">
@@ -8028,7 +8028,7 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>中山南路往北自由廣場前左側道</t>
+          <t>鄭州路西往東（延平北－承德）</t>
         </is>
       </c>
       <c r="G306" t="n">
@@ -8049,7 +8049,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>鄭州路西往東（延平北－承德）</t>
+          <t>重慶南路1段126巷對面</t>
         </is>
       </c>
       <c r="G307" t="n">
@@ -8070,7 +8070,7 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr">
         <is>
-          <t>重慶南路1段126巷對面</t>
+          <t>紹興南街（近徐州路口）</t>
         </is>
       </c>
       <c r="G308" t="n">
@@ -8091,7 +8091,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>紹興南街（近徐州路口）</t>
+          <t>羅斯福路二段172之2號（往南）</t>
         </is>
       </c>
       <c r="G309" t="n">
@@ -8112,7 +8112,7 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr">
         <is>
-          <t>羅斯福路二段172之2號（往南）</t>
+          <t>重慶南路二段13號對面（往南）</t>
         </is>
       </c>
       <c r="G310" t="n">
@@ -8133,7 +8133,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>重慶南路二段13號對面（往南）</t>
+          <t>中華路二段317號（往北）</t>
         </is>
       </c>
       <c r="G311" t="n">
@@ -8154,7 +8154,7 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr">
         <is>
-          <t>中華路二段317號（往北）</t>
+          <t>汀洲路二段271-277號（往北）</t>
         </is>
       </c>
       <c r="G312" t="n">
@@ -8175,7 +8175,7 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
-          <t>汀洲路二段271-277號（往北）</t>
+          <t>莒光路、大埔街口（東往西）</t>
         </is>
       </c>
       <c r="G313" t="n">
@@ -8196,7 +8196,7 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr">
         <is>
-          <t>莒光路、大埔街口（東往西）</t>
+          <t>羅斯福路二段174巷與羅斯福路口(往南)</t>
         </is>
       </c>
       <c r="G314" t="n">
@@ -8217,7 +8217,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>羅斯福路二段174巷與羅斯福路口(往南)</t>
+          <t>汀洲路3段24巷</t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -8238,7 +8238,7 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr">
         <is>
-          <t>汀洲路3段24巷</t>
+          <t>和平西路2段98巷對面往西</t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -8259,7 +8259,7 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>和平西路2段98巷對面往西</t>
+          <t>羅斯福路1段寧波西街口（往南）</t>
         </is>
       </c>
       <c r="G317" t="n">
@@ -8280,7 +8280,7 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>羅斯福路1段寧波西街口（往南）</t>
+          <t>市民大道四段(東向西)</t>
         </is>
       </c>
       <c r="G318" t="n">
@@ -8301,7 +8301,7 @@
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>市民大道四段(東向西)</t>
+          <t>濱江街（西往東）</t>
         </is>
       </c>
       <c r="G319" t="n">
@@ -8322,7 +8322,7 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>濱江街（西往東）</t>
+          <t>市民大道六段67號旁（東往西）</t>
         </is>
       </c>
       <c r="G320" t="n">
@@ -8343,7 +8343,7 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>市民大道六段67號旁（東往西）</t>
+          <t>塔悠路(南向北)</t>
         </is>
       </c>
       <c r="G321" t="n">
@@ -8364,7 +8364,7 @@
       <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>塔悠路(南向北)</t>
+          <t>塔悠路(北向南)</t>
         </is>
       </c>
       <c r="G322" t="n">
@@ -8385,7 +8385,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>塔悠路(北向南)</t>
+          <t>市民大道五段(東向西)</t>
         </is>
       </c>
       <c r="G323" t="n">
@@ -8406,7 +8406,7 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr">
         <is>
-          <t>市民大道五段(東向西)</t>
+          <t>復興南路一段29號(南向北)</t>
         </is>
       </c>
       <c r="G324" t="n">
@@ -8427,7 +8427,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
-          <t>復興南路一段29號(南向北)</t>
+          <t>民權東路四段﹝東向西﹞</t>
         </is>
       </c>
       <c r="G325" t="n">
@@ -8448,7 +8448,7 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
-          <t>民權東路四段﹝東向西﹞</t>
+          <t>松河街（東往西）</t>
         </is>
       </c>
       <c r="G326" t="n">
@@ -8469,7 +8469,7 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>松河街（東往西）</t>
+          <t>撫遠街（機場東側道路南向北）</t>
         </is>
       </c>
       <c r="G327" t="n">
@@ -8490,7 +8490,7 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>撫遠街（機場東側道路南向北）</t>
+          <t>南京東路四段（西向東）</t>
         </is>
       </c>
       <c r="G328" t="n">
@@ -8511,7 +8511,7 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>南京東路四段（西向東）</t>
+          <t>八德路四段（西往東）</t>
         </is>
       </c>
       <c r="G329" t="n">
@@ -8532,7 +8532,7 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
-          <t>八德路四段（西往東）</t>
+          <t>松河街（西往東）</t>
         </is>
       </c>
       <c r="G330" t="n">
@@ -8553,7 +8553,7 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr">
         <is>
-          <t>松河街（西往東）</t>
+          <t>民權東路四段100號（西往東）</t>
         </is>
       </c>
       <c r="G331" t="n">
@@ -8574,7 +8574,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>民權東路四段100號（西往東）</t>
+          <t>民生東路五段85號旁（東往西）</t>
         </is>
       </c>
       <c r="G332" t="n">
@@ -8595,7 +8595,7 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
-          <t>民生東路五段85號旁（東往西）</t>
+          <t>健康路325巷7號（北往南）</t>
         </is>
       </c>
       <c r="G333" t="n">
@@ -8616,7 +8616,7 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>健康路325巷7號（北往南）</t>
+          <t>撫遠街（機場東側道路北向南）</t>
         </is>
       </c>
       <c r="G334" t="n">
@@ -8637,7 +8637,7 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
-          <t>撫遠街（機場東側道路北向南）</t>
+          <t>民權東路三段197巷口（東往西）</t>
         </is>
       </c>
       <c r="G335" t="n">
@@ -8658,7 +8658,7 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
-          <t>民權東路三段197巷口（東往西）</t>
+          <t>市民大道六段松山至松信段（東往西）</t>
         </is>
       </c>
       <c r="G336" t="n">
@@ -8679,7 +8679,7 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
-          <t>市民大道六段松山至松信段（東往西）</t>
+          <t>民權東路三段191巷1弄口（東往西）</t>
         </is>
       </c>
       <c r="G337" t="n">
@@ -8700,7 +8700,7 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
-          <t>民權東路三段191巷1弄口（東往西）</t>
+          <t>敦化北路3號</t>
         </is>
       </c>
       <c r="G338" t="n">
@@ -8721,7 +8721,7 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
-          <t>敦化北路3號</t>
+          <t>塔悠路、撫遠街403巷口</t>
         </is>
       </c>
       <c r="G339" t="n">
@@ -8742,7 +8742,7 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr">
         <is>
-          <t>塔悠路、撫遠街403巷口</t>
+          <t>八德路二段366巷17號（南往北）</t>
         </is>
       </c>
       <c r="G340" t="n">
@@ -8763,7 +8763,7 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr">
         <is>
-          <t>八德路二段366巷17號（南往北）</t>
+          <t>敦化北路150號旁（北往南）</t>
         </is>
       </c>
       <c r="G341" t="n">
@@ -8784,7 +8784,7 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr">
         <is>
-          <t>敦化北路150號旁（北往南）</t>
+          <t>民生東路5段69巷4弄37號旁</t>
         </is>
       </c>
       <c r="G342" t="n">
@@ -8805,7 +8805,7 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr">
         <is>
-          <t>民生東路5段69巷4弄37號旁</t>
+          <t>松山區市民大道5段東興路口</t>
         </is>
       </c>
       <c r="G343" t="n">
@@ -8826,7 +8826,7 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
-          <t>松山區市民大道5段東興路口</t>
+          <t>忠孝東路、逸仙路﹝東向西﹞</t>
         </is>
       </c>
       <c r="G344" t="n">
@@ -8847,7 +8847,7 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr">
         <is>
-          <t>忠孝東路、逸仙路﹝東向西﹞</t>
+          <t>市民大道與東寧路﹝西向東﹞</t>
         </is>
       </c>
       <c r="G345" t="n">
@@ -8868,7 +8868,7 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
-          <t>市民大道與東寧路﹝西向東﹞</t>
+          <t>永吉路松信路</t>
         </is>
       </c>
       <c r="G346" t="n">
@@ -8889,7 +8889,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
-          <t>永吉路松信路</t>
+          <t>松仁路與松壽路(北向南)</t>
         </is>
       </c>
       <c r="G347" t="n">
@@ -8910,7 +8910,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
-          <t>松仁路與松壽路(北向南)</t>
+          <t>信義快速道路（南往北象山隧道出口處）</t>
         </is>
       </c>
       <c r="G348" t="n">
@@ -8931,7 +8931,7 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
-          <t>信義快速道路（南往北象山隧道出口處）</t>
+          <t>市民高架道光復南路上方（往東）</t>
         </is>
       </c>
       <c r="G349" t="n">
@@ -8952,7 +8952,7 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
-          <t>市民高架道光復南路上方（往東）</t>
+          <t>市民高架道光復南路上方（往西）</t>
         </is>
       </c>
       <c r="G350" t="n">
@@ -8973,7 +8973,7 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr">
         <is>
-          <t>市民高架道光復南路上方（往西）</t>
+          <t>忠孝東路、逸仙路﹝西向東﹞</t>
         </is>
       </c>
       <c r="G351" t="n">
@@ -8994,7 +8994,7 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr">
         <is>
-          <t>忠孝東路、逸仙路﹝西向東﹞</t>
+          <t>基隆路、松壽路口（往南）</t>
         </is>
       </c>
       <c r="G352" t="n">
@@ -9015,7 +9015,7 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr">
         <is>
-          <t>基隆路、松壽路口（往南）</t>
+          <t>光復南路456巷（北向南）</t>
         </is>
       </c>
       <c r="G353" t="n">
@@ -9036,7 +9036,7 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr">
         <is>
-          <t>光復南路456巷（北向南）</t>
+          <t>信義路五段17號前(東向西)</t>
         </is>
       </c>
       <c r="G354" t="n">
@@ -9057,7 +9057,7 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr">
         <is>
-          <t>信義路五段17號前(東向西)</t>
+          <t>忠孝東路四段國父紀念館-往西</t>
         </is>
       </c>
       <c r="G355" t="n">
@@ -9078,7 +9078,7 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr">
         <is>
-          <t>忠孝東路四段國父紀念館-往西</t>
+          <t>基隆路二段185號前</t>
         </is>
       </c>
       <c r="G356" t="n">
@@ -9099,7 +9099,7 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
-          <t>基隆路二段185號前</t>
+          <t>信義快速道路（南向北中段）</t>
         </is>
       </c>
       <c r="G357" t="n">
@@ -9120,7 +9120,7 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr">
         <is>
-          <t>信義快速道路（南向北中段）</t>
+          <t>忠孝東路五段215巷口（往東）</t>
         </is>
       </c>
       <c r="G358" t="n">
@@ -9141,7 +9141,7 @@
       <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
-          <t>忠孝東路五段215巷口（往東）</t>
+          <t>市民大道六段（往東）</t>
         </is>
       </c>
       <c r="G359" t="n">
@@ -9162,7 +9162,7 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
-          <t>市民大道六段（往東）</t>
+          <t>松隆路38號往東</t>
         </is>
       </c>
       <c r="G360" t="n">
@@ -9183,7 +9183,7 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
-          <t>松隆路38號往東</t>
+          <t>信安街67巷（東往西）</t>
         </is>
       </c>
       <c r="G361" t="n">
@@ -9204,7 +9204,7 @@
       <c r="E362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
-          <t>信安街67巷（東往西）</t>
+          <t>松平路、松平路33巷</t>
         </is>
       </c>
       <c r="G362" t="n">
@@ -9225,7 +9225,7 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr">
         <is>
-          <t>松平路、松平路33巷</t>
+          <t>忠孝東路四段國父紀念館往東</t>
         </is>
       </c>
       <c r="G363" t="n">
@@ -9246,7 +9246,7 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr">
         <is>
-          <t>忠孝東路四段國父紀念館往東</t>
+          <t>松德路168巷東往西</t>
         </is>
       </c>
       <c r="G364" t="n">
@@ -9267,7 +9267,7 @@
       <c r="E365" t="inlineStr"/>
       <c r="F365" t="inlineStr">
         <is>
-          <t>松德路168巷東往西</t>
+          <t>和平東路3段347號</t>
         </is>
       </c>
       <c r="G365" t="n">
@@ -9288,7 +9288,7 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr">
         <is>
-          <t>和平東路3段347號</t>
+          <t>延平北路八段（堤防便道）</t>
         </is>
       </c>
       <c r="G366" t="n">
@@ -9309,7 +9309,7 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr">
         <is>
-          <t>延平北路八段（堤防便道）</t>
+          <t>重陽橋往台北</t>
         </is>
       </c>
       <c r="G367" t="n">
@@ -9330,7 +9330,7 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr">
         <is>
-          <t>重陽橋往台北</t>
+          <t>重陽橋往三重</t>
         </is>
       </c>
       <c r="G368" t="n">
@@ -9351,7 +9351,7 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr">
         <is>
-          <t>重陽橋往三重</t>
+          <t>仰德大道三段221巷﹝往下山方向﹞</t>
         </is>
       </c>
       <c r="G369" t="n">
@@ -9372,7 +9372,7 @@
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
-          <t>仰德大道三段221巷﹝往下山方向﹞</t>
+          <t>仰德大道三段221巷（往上山方向）</t>
         </is>
       </c>
       <c r="G370" t="n">
@@ -9393,7 +9393,7 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr">
         <is>
-          <t>仰德大道三段221巷（往上山方向）</t>
+          <t>仰德大道一段42巷（往上山方向）</t>
         </is>
       </c>
       <c r="G371" t="n">
@@ -9414,7 +9414,7 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr">
         <is>
-          <t>仰德大道一段42巷（往上山方向）</t>
+          <t>東山路往北</t>
         </is>
       </c>
       <c r="G372" t="n">
@@ -9435,7 +9435,7 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
-          <t>東山路往北</t>
+          <t>仰德大道四段75號前-往下山方向</t>
         </is>
       </c>
       <c r="G373" t="n">
@@ -9456,7 +9456,7 @@
       <c r="E374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
-          <t>仰德大道四段75號前-往下山方向</t>
+          <t>中正路志成街口往西</t>
         </is>
       </c>
       <c r="G374" t="n">
@@ -9477,7 +9477,7 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
-          <t>中正路志成街口往西</t>
+          <t>中正路志成街口往東</t>
         </is>
       </c>
       <c r="G375" t="n">
@@ -9498,7 +9498,7 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
-          <t>中正路志成街口往東</t>
+          <t>中山北路四段﹝往北﹞</t>
         </is>
       </c>
       <c r="G376" t="n">
@@ -9519,7 +9519,7 @@
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr">
         <is>
-          <t>中山北路四段﹝往北﹞</t>
+          <t>至善路二段</t>
         </is>
       </c>
       <c r="G377" t="n">
@@ -9540,7 +9540,7 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>至善路二段</t>
+          <t>仰德大道一段42巷口對面（往下山方向）</t>
         </is>
       </c>
       <c r="G378" t="n">
@@ -9561,7 +9561,7 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr">
         <is>
-          <t>仰德大道一段42巷口對面（往下山方向）</t>
+          <t>仰德大道四段格致國中（往上山方向）</t>
         </is>
       </c>
       <c r="G379" t="n">
@@ -9582,7 +9582,7 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr">
         <is>
-          <t>仰德大道四段格致國中（往上山方向）</t>
+          <t>承德路四段（往南）</t>
         </is>
       </c>
       <c r="G380" t="n">
@@ -9603,7 +9603,7 @@
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr">
         <is>
-          <t>承德路四段（往南）</t>
+          <t>忠誠路二段（往北）</t>
         </is>
       </c>
       <c r="G381" t="n">
@@ -9624,7 +9624,7 @@
       <c r="E382" t="inlineStr"/>
       <c r="F382" t="inlineStr">
         <is>
-          <t>忠誠路二段（往北）</t>
+          <t>仰德大道二段（往下山方向）</t>
         </is>
       </c>
       <c r="G382" t="n">
@@ -9645,7 +9645,7 @@
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
-          <t>仰德大道二段（往下山方向）</t>
+          <t>延平北路六段往北</t>
         </is>
       </c>
       <c r="G383" t="n">
@@ -9666,7 +9666,7 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr">
         <is>
-          <t>延平北路六段往北</t>
+          <t>仰德大道二段146號（往上山方向）</t>
         </is>
       </c>
       <c r="G384" t="n">
@@ -9687,7 +9687,7 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr">
         <is>
-          <t>仰德大道二段146號（往上山方向）</t>
+          <t>福林路</t>
         </is>
       </c>
       <c r="G385" t="n">
@@ -9708,7 +9708,7 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr">
         <is>
-          <t>福林路</t>
+          <t>至善路一段（往西）</t>
         </is>
       </c>
       <c r="G386" t="n">
@@ -9729,7 +9729,7 @@
       <c r="E387" t="inlineStr"/>
       <c r="F387" t="inlineStr">
         <is>
-          <t>至善路一段（往西）</t>
+          <t>中山北路六段（往南）</t>
         </is>
       </c>
       <c r="G387" t="n">
@@ -9750,7 +9750,7 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr">
         <is>
-          <t>中山北路六段（往南）</t>
+          <t>承德路四段（往北）</t>
         </is>
       </c>
       <c r="G388" t="n">
@@ -9771,7 +9771,7 @@
       <c r="E389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
-          <t>承德路四段（往北）</t>
+          <t>通河西街二段堤外便道往北</t>
         </is>
       </c>
       <c r="G389" t="n">
@@ -9792,7 +9792,7 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>通河西街二段堤外便道往北</t>
+          <t>通河西街二段堤外便道往南</t>
         </is>
       </c>
       <c r="G390" t="n">
@@ -9813,7 +9813,7 @@
       <c r="E391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
-          <t>通河西街二段堤外便道往南</t>
+          <t>士東路往東</t>
         </is>
       </c>
       <c r="G391" t="n">
@@ -9834,7 +9834,7 @@
       <c r="E392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
-          <t>士東路往東</t>
+          <t>士東路往西</t>
         </is>
       </c>
       <c r="G392" t="n">
@@ -9855,7 +9855,7 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr">
         <is>
-          <t>士東路往西</t>
+          <t>延平北路七段106巷往北</t>
         </is>
       </c>
       <c r="G393" t="n">
@@ -9876,7 +9876,7 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
-          <t>延平北路七段106巷往北</t>
+          <t>延平北路七段106巷往南</t>
         </is>
       </c>
       <c r="G394" t="n">
@@ -9897,7 +9897,7 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr">
         <is>
-          <t>延平北路七段106巷往南</t>
+          <t>中山北路五段快車道往北</t>
         </is>
       </c>
       <c r="G395" t="n">
@@ -9918,7 +9918,7 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
-          <t>中山北路五段快車道往北</t>
+          <t>承德路四段77巷口往北</t>
         </is>
       </c>
       <c r="G396" t="n">
@@ -9939,7 +9939,7 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr">
         <is>
-          <t>承德路四段77巷口往北</t>
+          <t>承德路四段2巷、通河街76巷口往東</t>
         </is>
       </c>
       <c r="G397" t="n">
@@ -9960,7 +9960,7 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr">
         <is>
-          <t>承德路四段2巷、通河街76巷口往東</t>
+          <t>福林路254巷往東</t>
         </is>
       </c>
       <c r="G398" t="n">
@@ -9981,7 +9981,7 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr">
         <is>
-          <t>福林路254巷往東</t>
+          <t>文林路615巷文昌國小往東</t>
         </is>
       </c>
       <c r="G399" t="n">
@@ -10002,7 +10002,7 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
-          <t>文林路615巷文昌國小往東</t>
+          <t>至善路2段469號往下山</t>
         </is>
       </c>
       <c r="G400" t="n">
@@ -10023,7 +10023,7 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
-          <t>至善路2段469號往下山</t>
+          <t>至善路1段雙溪營區往東</t>
         </is>
       </c>
       <c r="G401" t="n">
@@ -10044,7 +10044,7 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
-          <t>至善路1段雙溪營區往東</t>
+          <t>通河西街一段堤外便道往北</t>
         </is>
       </c>
       <c r="G402" t="n">
@@ -10065,7 +10065,7 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr">
         <is>
-          <t>通河西街一段堤外便道往北</t>
+          <t>通河西街一段堤外便道往南</t>
         </is>
       </c>
       <c r="G403" t="n">
@@ -10086,7 +10086,7 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr">
         <is>
-          <t>通河西街一段堤外便道往南</t>
+          <t>通河東街2段往北</t>
         </is>
       </c>
       <c r="G404" t="n">
@@ -10107,7 +10107,7 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr">
         <is>
-          <t>通河東街2段往北</t>
+          <t>大度路三段305號旁（往台北）</t>
         </is>
       </c>
       <c r="G405" t="n">
@@ -10128,7 +10128,7 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr">
         <is>
-          <t>大度路三段305號旁（往台北）</t>
+          <t>大度路（中段往淡水）</t>
         </is>
       </c>
       <c r="G406" t="n">
@@ -10149,7 +10149,7 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr">
         <is>
-          <t>大度路（中段往淡水）</t>
+          <t>大度路（中段往臺北）</t>
         </is>
       </c>
       <c r="G407" t="n">
@@ -10170,7 +10170,7 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr">
         <is>
-          <t>大度路（中段往臺北）</t>
+          <t>大業路（往北、近大興街口）</t>
         </is>
       </c>
       <c r="G408" t="n">
@@ -10191,7 +10191,7 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
-          <t>大業路（往北、近大興街口）</t>
+          <t>大業路（北向南）</t>
         </is>
       </c>
       <c r="G409" t="n">
@@ -10212,7 +10212,7 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
-          <t>大業路（北向南）</t>
+          <t>承德路六段（往北、近文承路口）</t>
         </is>
       </c>
       <c r="G410" t="n">
@@ -10233,7 +10233,7 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
-          <t>承德路六段（往北、近文承路口）</t>
+          <t>承德路六段（往南、近文承路口）</t>
         </is>
       </c>
       <c r="G411" t="n">
@@ -10254,7 +10254,7 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr">
         <is>
-          <t>承德路六段（往南、近文承路口）</t>
+          <t>中央北路三段近220巷口（往北投）</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -10275,7 +10275,7 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
         <is>
-          <t>中央北路三段近220巷口（往北投）</t>
+          <t>中央北路四段近60巷口（往關渡）</t>
         </is>
       </c>
       <c r="G413" t="n">
@@ -10296,7 +10296,7 @@
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr">
         <is>
-          <t>中央北路四段近60巷口（往關渡）</t>
+          <t>大度路機車道﹝往淡水、迴轉道旁﹞</t>
         </is>
       </c>
       <c r="G414" t="n">
@@ -10317,7 +10317,7 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr">
         <is>
-          <t>大度路機車道﹝往淡水、迴轉道旁﹞</t>
+          <t>大度路機車道﹝往台北、迴轉道旁﹞</t>
         </is>
       </c>
       <c r="G415" t="n">
@@ -10338,7 +10338,7 @@
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr">
         <is>
-          <t>大度路機車道﹝往台北、迴轉道旁﹞</t>
+          <t>洲美快速道路﹝往北、近承德路匣道﹞</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -10359,7 +10359,7 @@
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr">
         <is>
-          <t>洲美快速道路﹝往北、近承德路匣道﹞</t>
+          <t>洲美快速道路﹝往南、近承德路匣道﹞</t>
         </is>
       </c>
       <c r="G417" t="n">
@@ -10380,7 +10380,7 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr">
         <is>
-          <t>洲美快速道路﹝往南、近承德路匣道﹞</t>
+          <t>文林北路（往士林、近75巷口）</t>
         </is>
       </c>
       <c r="G418" t="n">
@@ -10401,7 +10401,7 @@
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr">
         <is>
-          <t>文林北路（往士林、近75巷口）</t>
+          <t>承德路七段（往台北、近344巷口）</t>
         </is>
       </c>
       <c r="G419" t="n">
@@ -10422,7 +10422,7 @@
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr">
         <is>
-          <t>承德路七段（往台北、近344巷口）</t>
+          <t>承德路七段往淡水</t>
         </is>
       </c>
       <c r="G420" t="n">
@@ -10443,7 +10443,7 @@
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr">
         <is>
-          <t>承德路七段往淡水</t>
+          <t>行義路近300巷（往南）</t>
         </is>
       </c>
       <c r="G421" t="n">
@@ -10464,7 +10464,7 @@
       <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr">
         <is>
-          <t>行義路近300巷（往南）</t>
+          <t>行義路近260巷（往北）</t>
         </is>
       </c>
       <c r="G422" t="n">
@@ -10485,7 +10485,7 @@
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>行義路近260巷（往北）</t>
+          <t>竹子湖路16號旁（往金山）</t>
         </is>
       </c>
       <c r="G423" t="n">
@@ -10506,7 +10506,7 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr">
         <is>
-          <t>竹子湖路16號旁（往金山）</t>
+          <t>竹子湖路112號旁（往台北）</t>
         </is>
       </c>
       <c r="G424" t="n">
@@ -10527,7 +10527,7 @@
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr">
         <is>
-          <t>竹子湖路112號旁（往台北）</t>
+          <t>大業路527巷（往淡水、近23弄口）</t>
         </is>
       </c>
       <c r="G425" t="n">
@@ -10548,7 +10548,7 @@
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr">
         <is>
-          <t>大業路527巷（往淡水、近23弄口）</t>
+          <t>大業路527巷（往台北、近23弄口）</t>
         </is>
       </c>
       <c r="G426" t="n">
@@ -10569,7 +10569,7 @@
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>大業路527巷（往台北、近23弄口）</t>
+          <t>北投路一段（往北）</t>
         </is>
       </c>
       <c r="G427" t="n">
@@ -10590,7 +10590,7 @@
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>北投路一段（往北）</t>
+          <t>洲美街焚化爐前（往士林）</t>
         </is>
       </c>
       <c r="G428" t="n">
@@ -10611,7 +10611,7 @@
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
-          <t>洲美街焚化爐前（往士林）</t>
+          <t>學園路（往關渡）</t>
         </is>
       </c>
       <c r="G429" t="n">
@@ -10632,7 +10632,7 @@
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr">
         <is>
-          <t>社子大橋（往北投）</t>
+          <t>北投路一段近87巷（往南）</t>
         </is>
       </c>
       <c r="G430" t="n">
@@ -10653,7 +10653,7 @@
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr">
         <is>
-          <t>學園路（往關渡）</t>
+          <t>石牌路二段324巷（往東）</t>
         </is>
       </c>
       <c r="G431" t="n">
@@ -10674,7 +10674,7 @@
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr">
         <is>
-          <t>北投路一段近87巷（往南）</t>
+          <t>行義路近241號（往南）</t>
         </is>
       </c>
       <c r="G432" t="n">
@@ -10695,7 +10695,7 @@
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
         <is>
-          <t>石牌路二段324巷（往東）</t>
+          <t>新民路22巷口往西</t>
         </is>
       </c>
       <c r="G433" t="n">
@@ -10716,7 +10716,7 @@
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr">
         <is>
-          <t>石牌路二段325巷（往西）</t>
+          <t>稻香路260號往臺北</t>
         </is>
       </c>
       <c r="G434" t="n">
@@ -10737,7 +10737,7 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr">
         <is>
-          <t>行義路近241號（往南）</t>
+          <t>大業路527巷101弄口往台北</t>
         </is>
       </c>
       <c r="G435" t="n">
@@ -10758,7 +10758,7 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr">
         <is>
-          <t>新民路22巷口往西</t>
+          <t>中央北路二段257巷往北（貴四橋旁）</t>
         </is>
       </c>
       <c r="G436" t="n">
@@ -10779,7 +10779,7 @@
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr">
         <is>
-          <t>稻香路260號往臺北</t>
+          <t>中央北路二段257巷往南（貴四橋旁）</t>
         </is>
       </c>
       <c r="G437" t="n">
@@ -10800,7 +10800,7 @@
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr">
         <is>
-          <t>大業路527巷101弄口往台北</t>
+          <t>承德路六段往北（近北科路口）</t>
         </is>
       </c>
       <c r="G438" t="n">
@@ -10821,7 +10821,7 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往北（貴四橋旁）</t>
+          <t>福國路洲美快匝道口往東</t>
         </is>
       </c>
       <c r="G439" t="n">
@@ -10842,7 +10842,7 @@
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往南（貴四橋旁）</t>
+          <t>大業路527巷101弄口往關渡</t>
         </is>
       </c>
       <c r="G440" t="n">
@@ -10863,7 +10863,7 @@
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr">
         <is>
-          <t>承德路六段往北（近北科路口）</t>
+          <t>立賢路往社子（近168號）</t>
         </is>
       </c>
       <c r="G441" t="n">
@@ -10884,7 +10884,7 @@
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
-          <t>福國路洲美快匝道口往東</t>
+          <t>立賢路往北投（近91號）</t>
         </is>
       </c>
       <c r="G442" t="n">
@@ -12060,7 +12060,7 @@
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
         <is>
-          <t>民權東路六段423巷口（東向西）</t>
+          <t>松河街376號（東往西）</t>
         </is>
       </c>
       <c r="G498" t="n">
@@ -12081,7 +12081,7 @@
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr">
         <is>
-          <t>瑞光路、陽光街口（南向北）</t>
+          <t>松河街376號（西往東）</t>
         </is>
       </c>
       <c r="G499" t="n">
@@ -12102,7 +12102,7 @@
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
-          <t>金湖路200號前﹝南向北﹞</t>
+          <t>研究院路三段279號（南往北）</t>
         </is>
       </c>
       <c r="G500" t="n">
@@ -12123,7 +12123,7 @@
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
-          <t>環東大道(南京東路六段368巷口上方)東向西</t>
+          <t>研究院路四段91號（北往南）</t>
         </is>
       </c>
       <c r="G501" t="n">
@@ -12144,7 +12144,7 @@
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
-          <t>成功路二段250巷口﹝南向北﹞</t>
+          <t>研究院路四段200號（南往北）</t>
         </is>
       </c>
       <c r="G502" t="n">
@@ -12165,7 +12165,7 @@
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr">
         <is>
-          <t>成功路二段３７３號前（北向南）</t>
+          <t>民權東路六段423巷口（東向西）</t>
         </is>
       </c>
       <c r="G503" t="n">
@@ -12186,7 +12186,7 @@
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr">
         <is>
-          <t>南京東路六段、新明路426巷口﹝西向東﹞</t>
+          <t>瑞光路、陽光街口（南向北）</t>
         </is>
       </c>
       <c r="G504" t="n">
@@ -12207,7 +12207,7 @@
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr">
         <is>
-          <t>成功路五段152巷口（東向西）</t>
+          <t>金湖路200號前﹝南向北﹞</t>
         </is>
       </c>
       <c r="G505" t="n">
@@ -12228,7 +12228,7 @@
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr">
         <is>
-          <t>民權東路六段136巷﹝東向西﹞</t>
+          <t>環東大道(南京東路六段368巷口上方)東向西</t>
         </is>
       </c>
       <c r="G506" t="n">
@@ -12249,7 +12249,7 @@
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr">
         <is>
-          <t>金湖路南向北</t>
+          <t>成功路二段250巷口﹝南向北﹞</t>
         </is>
       </c>
       <c r="G507" t="n">
@@ -12270,7 +12270,7 @@
       <c r="E508" t="inlineStr"/>
       <c r="F508" t="inlineStr">
         <is>
-          <t>堤頂大道一段（北向南）</t>
+          <t>成功路二段373號前（北向南）</t>
         </is>
       </c>
       <c r="G508" t="n">
@@ -12291,7 +12291,7 @@
       <c r="E509" t="inlineStr"/>
       <c r="F509" t="inlineStr">
         <is>
-          <t>南京東路六段(東向西)</t>
+          <t>南京東路六段、新明路426巷口﹝西向東﹞</t>
         </is>
       </c>
       <c r="G509" t="n">
@@ -12312,7 +12312,7 @@
       <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr">
         <is>
-          <t>南京東路六段（西向東）</t>
+          <t>成功路五段152巷口（東向西）</t>
         </is>
       </c>
       <c r="G510" t="n">
@@ -12333,7 +12333,7 @@
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr">
         <is>
-          <t>堤頂大道一段（南向北）</t>
+          <t>民權東路六段136巷﹝東向西﹞</t>
         </is>
       </c>
       <c r="G511" t="n">
@@ -12354,7 +12354,7 @@
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr">
         <is>
-          <t>環東大道(西向東)</t>
+          <t>金湖路南向北</t>
         </is>
       </c>
       <c r="G512" t="n">
@@ -12375,7 +12375,7 @@
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr">
         <is>
-          <t>成功路五段大湖公園前(東向西)</t>
+          <t>堤頂大道一段（北向南）</t>
         </is>
       </c>
       <c r="G513" t="n">
@@ -12396,7 +12396,7 @@
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr">
         <is>
-          <t>民權大橋（東向西）</t>
+          <t>南京東路六段(東向西)</t>
         </is>
       </c>
       <c r="G514" t="n">
@@ -12417,7 +12417,7 @@
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr">
         <is>
-          <t>民權大橋（西向東）</t>
+          <t>南京東路六段（西向東）</t>
         </is>
       </c>
       <c r="G515" t="n">
@@ -12438,7 +12438,7 @@
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr">
         <is>
-          <t>文德路﹝內湖高中前─西向東﹞</t>
+          <t>堤頂大道一段（南向北）</t>
         </is>
       </c>
       <c r="G516" t="n">
@@ -12459,7 +12459,7 @@
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr">
         <is>
-          <t>成功路二段（南向北）</t>
+          <t>環東大道(西向東)</t>
         </is>
       </c>
       <c r="G517" t="n">
@@ -12480,7 +12480,7 @@
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr">
         <is>
-          <t>金湖路北向南</t>
+          <t>成功路五段大湖公園前(東向西)</t>
         </is>
       </c>
       <c r="G518" t="n">
@@ -12501,7 +12501,7 @@
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr">
         <is>
-          <t>永保街東向西</t>
+          <t>民權大橋（東向西）</t>
         </is>
       </c>
       <c r="G519" t="n">
@@ -12522,7 +12522,7 @@
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
-          <t>潭美街、新明路460巷口（東向西）</t>
+          <t>民權大橋（西向東）</t>
         </is>
       </c>
       <c r="G520" t="n">
@@ -12543,7 +12543,7 @@
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
-          <t>潭美街、新明路460巷口（西向東）</t>
+          <t>文德路﹝內湖高中前(cid:711)西向東﹞</t>
         </is>
       </c>
       <c r="G521" t="n">
@@ -12564,7 +12564,7 @@
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr">
         <is>
-          <t>行善路（東向西）</t>
+          <t>成功路二段（南向北）</t>
         </is>
       </c>
       <c r="G522" t="n">
@@ -12585,7 +12585,7 @@
       <c r="E523" t="inlineStr"/>
       <c r="F523" t="inlineStr">
         <is>
-          <t>行善路（西向東）</t>
+          <t>金湖路北向南</t>
         </is>
       </c>
       <c r="G523" t="n">
@@ -12606,7 +12606,7 @@
       <c r="E524" t="inlineStr"/>
       <c r="F524" t="inlineStr">
         <is>
-          <t>環山路三段內湖路二段103巷（東向西）</t>
+          <t>永保街東向西</t>
         </is>
       </c>
       <c r="G524" t="n">
@@ -12627,7 +12627,7 @@
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr">
         <is>
-          <t>南京東路六段、堤頂大道一段口（往北）</t>
+          <t>潭美街、新明路460巷口（東向西）</t>
         </is>
       </c>
       <c r="G525" t="n">
@@ -12648,7 +12648,7 @@
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>康湖路康樂隧道西側出口(東向西)</t>
+          <t>潭美街、新明路460巷口（西向東）</t>
         </is>
       </c>
       <c r="G526" t="n">
@@ -12669,7 +12669,7 @@
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>康寧路三段75巷137號（東向西）</t>
+          <t>行善路（東向西）</t>
         </is>
       </c>
       <c r="G527" t="n">
@@ -12690,7 +12690,7 @@
       <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>成功路五段大湖公園（西向東）</t>
+          <t>行善路（西向東）</t>
         </is>
       </c>
       <c r="G528" t="n">
@@ -12711,7 +12711,7 @@
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>環山路三段（西向東）</t>
+          <t>環山路三段內湖路二段103巷（東向西）</t>
         </is>
       </c>
       <c r="G529" t="n">
@@ -12732,7 +12732,7 @@
       <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>環山路二段麗山高中前</t>
+          <t>南京東路六段、堤頂大道一段口（往北）</t>
         </is>
       </c>
       <c r="G530" t="n">
@@ -12753,7 +12753,7 @@
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>內湖路一段（西向東）</t>
+          <t>康湖路康樂隧道西側出口(東向西)</t>
         </is>
       </c>
       <c r="G531" t="n">
@@ -12774,7 +12774,7 @@
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>內湖路一段（東向西）</t>
+          <t>康寧路三段75巷137號（東向西）</t>
         </is>
       </c>
       <c r="G532" t="n">
@@ -12795,7 +12795,7 @@
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
-          <t>民權東路六段（東向西）</t>
+          <t>成功路五段大湖公園（西向東）</t>
         </is>
       </c>
       <c r="G533" t="n">
@@ -12816,7 +12816,7 @@
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>民權東路六段（西向東）</t>
+          <t>環山路三段（西向東）</t>
         </is>
       </c>
       <c r="G534" t="n">
@@ -12837,7 +12837,7 @@
       <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
-          <t>康湖路（西向東）</t>
+          <t>環山路二段麗山高中前</t>
         </is>
       </c>
       <c r="G535" t="n">
@@ -12858,7 +12858,7 @@
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>堤頂大道二段（南向北）</t>
+          <t>內湖路一段（西向東）</t>
         </is>
       </c>
       <c r="G536" t="n">
@@ -12879,7 +12879,7 @@
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
-          <t>文德路（東向西）</t>
+          <t>內湖路一段（東向西）</t>
         </is>
       </c>
       <c r="G537" t="n">
@@ -12900,7 +12900,7 @@
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr">
         <is>
-          <t>環山路二段（西向東）</t>
+          <t>民權東路六段（東向西）</t>
         </is>
       </c>
       <c r="G538" t="n">
@@ -12921,7 +12921,7 @@
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr">
         <is>
-          <t>環山路二段（東向西）</t>
+          <t>民權東路六段（西向東）</t>
         </is>
       </c>
       <c r="G539" t="n">
@@ -12942,7 +12942,7 @@
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr">
         <is>
-          <t>潭美街（東向西）</t>
+          <t>康湖路（西向東）</t>
         </is>
       </c>
       <c r="G540" t="n">
@@ -12963,7 +12963,7 @@
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr">
         <is>
-          <t>潭美街（西向東）</t>
+          <t>堤頂大道二段（南向北）</t>
         </is>
       </c>
       <c r="G541" t="n">
@@ -12984,7 +12984,7 @@
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr">
         <is>
-          <t>文德路66巷口（西向東）</t>
+          <t>文德路（東向西）</t>
         </is>
       </c>
       <c r="G542" t="n">
@@ -13005,7 +13005,7 @@
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
-          <t>康寧路三段（南向北）</t>
+          <t>環山路二段（西向東）</t>
         </is>
       </c>
       <c r="G543" t="n">
@@ -13026,7 +13026,7 @@
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
-          <t>康寧路三段（北向南）</t>
+          <t>環山路二段（東向西）</t>
         </is>
       </c>
       <c r="G544" t="n">
@@ -13047,7 +13047,7 @@
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
-          <t>南京東路六段99號旁（東向西）</t>
+          <t>潭美街（東向西）</t>
         </is>
       </c>
       <c r="G545" t="n">
@@ -13068,7 +13068,7 @@
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>金湖路363巷8號旁（北向南）</t>
+          <t>潭美街（西向東）</t>
         </is>
       </c>
       <c r="G546" t="n">
@@ -13089,7 +13089,7 @@
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr">
         <is>
-          <t>南京東路六段162號旁（西向東）</t>
+          <t>文德路66巷口（西向東）</t>
         </is>
       </c>
       <c r="G547" t="n">
@@ -13110,7 +13110,7 @@
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr">
         <is>
-          <t>潭美街129號對面（西向東）</t>
+          <t>康寧路三段（南向北）</t>
         </is>
       </c>
       <c r="G548" t="n">
@@ -13131,7 +13131,7 @@
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr">
         <is>
-          <t>民權東路六段191巷與金湖路363巷口（東向西）</t>
+          <t>康寧路三段（北向南）</t>
         </is>
       </c>
       <c r="G549" t="n">
@@ -13146,23 +13146,17 @@
           <t>臺北市</t>
         </is>
       </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>中山區</t>
-        </is>
-      </c>
+      <c r="B550" t="inlineStr"/>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr">
         <is>
-          <t>自強隧道</t>
-        </is>
-      </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>區間測速及跨越雙白線</t>
-        </is>
+          <t>南京東路六段99號旁（東向西）</t>
+        </is>
+      </c>
+      <c r="G550" t="n">
+        <v>5</v>
       </c>
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr"/>
@@ -13173,23 +13167,17 @@
           <t>臺北市</t>
         </is>
       </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>大安區</t>
-        </is>
-      </c>
+      <c r="B551" t="inlineStr"/>
       <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr">
         <is>
-          <t>辛亥隧道</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>區間測速及跨越雙白線</t>
-        </is>
+          <t>金湖路363巷8號旁（北向南）</t>
+        </is>
+      </c>
+      <c r="G551" t="n">
+        <v>5</v>
       </c>
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr"/>
@@ -13200,23 +13188,17 @@
           <t>臺北市</t>
         </is>
       </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>信義區</t>
-        </is>
-      </c>
+      <c r="B552" t="inlineStr"/>
       <c r="C552" t="inlineStr"/>
       <c r="D552" t="inlineStr"/>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr">
         <is>
-          <t>市府轉運站前(忠孝東路五段)</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>違規停車</t>
-        </is>
+          <t>南京東路六段162號旁（西向東）</t>
+        </is>
+      </c>
+      <c r="G552" t="n">
+        <v>5</v>
       </c>
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr"/>
@@ -13227,23 +13209,17 @@
           <t>臺北市</t>
         </is>
       </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>中正區</t>
-        </is>
-      </c>
+      <c r="B553" t="inlineStr"/>
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr"/>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr">
         <is>
-          <t>臺北車站北側門(市民大道一段)</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>違規停車</t>
-        </is>
+          <t>潭美街129號對面（西向東）</t>
+        </is>
+      </c>
+      <c r="G553" t="n">
+        <v>5</v>
       </c>
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr"/>
@@ -13254,23 +13230,17 @@
           <t>臺北市</t>
         </is>
       </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>信義區</t>
-        </is>
-      </c>
+      <c r="B554" t="inlineStr"/>
       <c r="C554" t="inlineStr"/>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr">
         <is>
-          <t>臺北醫學院周邊(吳興街220巷)</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>違規停車</t>
-        </is>
+          <t>民權東路六段191巷與金湖路363巷口（東向西）</t>
+        </is>
+      </c>
+      <c r="G554" t="n">
+        <v>5</v>
       </c>
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr"/>
@@ -13291,12 +13261,12 @@
       <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
-          <t>馬偕醫院周邊(中山北路二段92號)</t>
+          <t>自強隧道</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>違規停車</t>
+          <t>區間測速及跨越雙白線</t>
         </is>
       </c>
       <c r="H555" t="inlineStr"/>
@@ -13310,7 +13280,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
@@ -13318,12 +13288,12 @@
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
-          <t>臺北轉運站前(市民大道一段)</t>
+          <t>辛亥隧道</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>違規停車</t>
+          <t>區間測速及跨越雙白線</t>
         </is>
       </c>
       <c r="H556" t="inlineStr"/>
@@ -13337,7 +13307,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>南港區</t>
+          <t>信義區</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
@@ -13345,7 +13315,7 @@
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
-          <t>南港車站前(市民大道八段)</t>
+          <t>市府轉運站前(忠孝東路五段)</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
@@ -13364,7 +13334,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>內湖區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
@@ -13372,7 +13342,7 @@
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
-          <t>內湖路一段739號前</t>
+          <t>臺北車站北側門(市民大道一段)</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -13391,7 +13361,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>信義區</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
@@ -13399,7 +13369,7 @@
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
-          <t>捷運公館站前(羅斯福路四段68號至108巷前)</t>
+          <t>臺北醫學院周邊(吳興街220巷)</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
@@ -13418,7 +13388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>北投區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
@@ -13426,7 +13396,7 @@
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr">
         <is>
-          <t>臺北榮總醫院周邊(石牌路二段與立農街口周邊及石牌路二段與天母西路口周邊)</t>
+          <t>馬偕醫院周邊(中山北路二段92號)</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -13445,7 +13415,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>信義區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
@@ -13453,7 +13423,7 @@
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr">
         <is>
-          <t>臺北大巨蛋前(忠孝東路四段)</t>
+          <t>臺北轉運站前(市民大道一段)</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -13472,7 +13442,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>南港區</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
@@ -13480,7 +13450,7 @@
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr">
         <is>
-          <t>中山南路與常德街口(臺大醫院旁)</t>
+          <t>南港車站前(市民大道八段)</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -13499,7 +13469,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>內湖區</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
@@ -13507,7 +13477,7 @@
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr">
         <is>
-          <t>立殯儀館(懷愛館)辛亥路三段</t>
+          <t>內湖路一段739號前</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -13534,12 +13504,12 @@
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>市民高架道路(近臺北車站及臺北轉運站上方)</t>
+          <t>捷運公館站前(羅斯福路四段68號至108巷前)</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>逾10噸大貨車違規行駛、機車違規行駛及行駛路肩</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H564" t="inlineStr"/>
@@ -13553,7 +13523,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>北投區</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
@@ -13561,12 +13531,12 @@
       <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>建國高架道路(市民大道上方)</t>
+          <t>臺北榮總醫院周邊(石牌路二段與立農街口周邊及石牌路二段與天母西路口周邊)</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>逾10噸大貨車違規行駛、機車違規行駛及不依標誌標線號誌指示行駛</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H565" t="inlineStr"/>
@@ -13580,7 +13550,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>信義區</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
@@ -13588,12 +13558,12 @@
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>鄭州路與西寧北路口</t>
+          <t>臺北大巨蛋前(忠孝東路四段)</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H566" t="inlineStr"/>
@@ -13615,12 +13585,12 @@
       <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
-          <t>市民大道與承德路口</t>
+          <t>中山南路與常德街口(臺大醫院旁)</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H567" t="inlineStr"/>
@@ -13634,7 +13604,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
@@ -13642,12 +13612,12 @@
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr">
         <is>
-          <t>民權西路與承德路口</t>
+          <t>立殯儀館(懷愛館)辛亥路三段</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>違規停車</t>
         </is>
       </c>
       <c r="H568" t="inlineStr"/>
@@ -13661,7 +13631,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
@@ -13669,12 +13639,12 @@
       <c r="E569" t="inlineStr"/>
       <c r="F569" t="inlineStr">
         <is>
-          <t>民權西路與延平北路口</t>
+          <t>市民高架道路(近臺北車站及臺北轉運站上方)</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、汽車行駛機車道(上匝)</t>
+          <t>逾10噸大貨車違規行駛、機車違規行駛及行駛路肩</t>
         </is>
       </c>
       <c r="H569" t="inlineStr"/>
@@ -13688,7 +13658,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
@@ -13696,12 +13666,12 @@
       <c r="E570" t="inlineStr"/>
       <c r="F570" t="inlineStr">
         <is>
-          <t>民權西路與蘭州街口</t>
+          <t>建國高架道路(市民大道上方)</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎</t>
+          <t>逾10噸大貨車違規行駛、機車違規行駛及不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H570" t="inlineStr"/>
@@ -13715,7 +13685,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
@@ -13723,12 +13693,12 @@
       <c r="E571" t="inlineStr"/>
       <c r="F571" t="inlineStr">
         <is>
-          <t>大直街與北安路口</t>
+          <t>鄭州路與西寧北路口</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H571" t="inlineStr"/>
@@ -13742,7 +13712,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
@@ -13750,7 +13720,7 @@
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr">
         <is>
-          <t>民權東路與建國北路口</t>
+          <t>市民大道與承德路口</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -13769,7 +13739,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C573" t="inlineStr"/>
@@ -13777,12 +13747,12 @@
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr">
         <is>
-          <t>市民大道與中山北路口</t>
+          <t>民權西路與承德路口</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H573" t="inlineStr"/>
@@ -13796,7 +13766,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C574" t="inlineStr"/>
@@ -13804,12 +13774,12 @@
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr">
         <is>
-          <t>市民大道與建國南路口</t>
+          <t>民權西路與延平北路口</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、汽車行駛機車道(上匝)</t>
         </is>
       </c>
       <c r="H574" t="inlineStr"/>
@@ -13823,7 +13793,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -13831,12 +13801,12 @@
       <c r="E575" t="inlineStr"/>
       <c r="F575" t="inlineStr">
         <is>
-          <t>市民大道與林森北路口</t>
+          <t>民權西路與蘭州街口</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不依規定轉彎</t>
         </is>
       </c>
       <c r="H575" t="inlineStr"/>
@@ -13850,7 +13820,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C576" t="inlineStr"/>
@@ -13858,12 +13828,12 @@
       <c r="E576" t="inlineStr"/>
       <c r="F576" t="inlineStr">
         <is>
-          <t>和平東路與基隆路口</t>
+          <t>大直街與北安路口</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車</t>
         </is>
       </c>
       <c r="H576" t="inlineStr"/>
@@ -13877,7 +13847,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C577" t="inlineStr"/>
@@ -13885,12 +13855,12 @@
       <c r="E577" t="inlineStr"/>
       <c r="F577" t="inlineStr">
         <is>
-          <t>信義路與建國南路口</t>
+          <t>民權東路與建國北路口</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車</t>
         </is>
       </c>
       <c r="H577" t="inlineStr"/>
@@ -13904,7 +13874,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C578" t="inlineStr"/>
@@ -13912,12 +13882,12 @@
       <c r="E578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
-          <t>辛亥路與基隆路口</t>
+          <t>市民大道與中山北路口</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、機車行駛人行道</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H578" t="inlineStr"/>
@@ -13931,7 +13901,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C579" t="inlineStr"/>
@@ -13939,12 +13909,12 @@
       <c r="E579" t="inlineStr"/>
       <c r="F579" t="inlineStr">
         <is>
-          <t>市民大道與敦化南路口</t>
+          <t>市民大道與建國南路口</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H579" t="inlineStr"/>
@@ -13958,7 +13928,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>信義區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C580" t="inlineStr"/>
@@ -13966,12 +13936,12 @@
       <c r="E580" t="inlineStr"/>
       <c r="F580" t="inlineStr">
         <is>
-          <t>忠孝東路與基隆路口</t>
+          <t>市民大道與林森北路口</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H580" t="inlineStr"/>
@@ -13985,7 +13955,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>信義區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C581" t="inlineStr"/>
@@ -13993,7 +13963,7 @@
       <c r="E581" t="inlineStr"/>
       <c r="F581" t="inlineStr">
         <is>
-          <t>信義路與基隆路口</t>
+          <t>和平東路與基隆路口</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -14012,7 +13982,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>士林區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C582" t="inlineStr"/>
@@ -14020,12 +13990,12 @@
       <c r="E582" t="inlineStr"/>
       <c r="F582" t="inlineStr">
         <is>
-          <t>中正路與延平北路口</t>
+          <t>信義路與建國南路口</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H582" t="inlineStr"/>
@@ -14039,7 +14009,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>北投區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C583" t="inlineStr"/>
@@ -14047,12 +14017,12 @@
       <c r="E583" t="inlineStr"/>
       <c r="F583" t="inlineStr">
         <is>
-          <t>大度路與立德路口</t>
+          <t>辛亥路與基隆路口</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、機車行駛人行道</t>
         </is>
       </c>
       <c r="H583" t="inlineStr"/>
@@ -14066,7 +14036,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>北投區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C584" t="inlineStr"/>
@@ -14074,12 +14044,12 @@
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr">
         <is>
-          <t>承德路與福國路口</t>
+          <t>市民大道與敦化南路口</t>
         </is>
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
         </is>
       </c>
       <c r="H584" t="inlineStr"/>
@@ -14093,7 +14063,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>萬華區</t>
+          <t>信義區</t>
         </is>
       </c>
       <c r="C585" t="inlineStr"/>
@@ -14101,7 +14071,7 @@
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr">
         <is>
-          <t>和平西路與西園路口</t>
+          <t>忠孝東路與基隆路口</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -14120,7 +14090,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>文山區</t>
+          <t>信義區</t>
         </is>
       </c>
       <c r="C586" t="inlineStr"/>
@@ -14128,7 +14098,7 @@
       <c r="E586" t="inlineStr"/>
       <c r="F586" t="inlineStr">
         <is>
-          <t>辛亥路與木柵路口</t>
+          <t>信義路與基隆路口</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
@@ -14147,7 +14117,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>內湖區</t>
+          <t>士林區</t>
         </is>
       </c>
       <c r="C587" t="inlineStr"/>
@@ -14155,12 +14125,12 @@
       <c r="E587" t="inlineStr"/>
       <c r="F587" t="inlineStr">
         <is>
-          <t>港墘路與堤頂大道口</t>
+          <t>中正路與延平北路口</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、路口未淨空</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
         </is>
       </c>
       <c r="H587" t="inlineStr"/>
@@ -14174,7 +14144,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>北投區</t>
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
@@ -14182,12 +14152,12 @@
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="inlineStr">
         <is>
-          <t>南京東路與建國北路口</t>
+          <t>大度路與立德路口</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H588" t="inlineStr"/>
@@ -14201,7 +14171,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>內湖區</t>
+          <t>北投區</t>
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
@@ -14209,12 +14179,12 @@
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
-          <t>民權東路與舊宗路、行忠路口</t>
+          <t>承德路與福國路口</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、路口未淨空</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H589" t="inlineStr"/>
@@ -14228,7 +14198,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>萬華區</t>
         </is>
       </c>
       <c r="C590" t="inlineStr"/>
@@ -14236,12 +14206,12 @@
       <c r="E590" t="inlineStr"/>
       <c r="F590" t="inlineStr">
         <is>
-          <t>忠孝東路與敦化南路口(含敦化南路1段270巷與仁愛路4段71巷口)</t>
+          <t>和平西路與西園路口</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車、行經設有停車再開標誌、標字之交岔路口不依規定停讓</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H590" t="inlineStr"/>
@@ -14255,7 +14225,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>文山區</t>
         </is>
       </c>
       <c r="C591" t="inlineStr"/>
@@ -14263,12 +14233,12 @@
       <c r="E591" t="inlineStr"/>
       <c r="F591" t="inlineStr">
         <is>
-          <t>仁愛路、敦化南路口</t>
+          <t>辛亥路與木柵路口</t>
         </is>
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、違規停車、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H591" t="inlineStr"/>
@@ -14282,7 +14252,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>內湖區</t>
         </is>
       </c>
       <c r="C592" t="inlineStr"/>
@@ -14290,12 +14260,12 @@
       <c r="E592" t="inlineStr"/>
       <c r="F592" t="inlineStr">
         <is>
-          <t>基隆路與羅斯福路口</t>
+          <t>港墘路與堤頂大道口</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、路口未淨空</t>
         </is>
       </c>
       <c r="H592" t="inlineStr"/>
@@ -14309,7 +14279,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C593" t="inlineStr"/>
@@ -14317,12 +14287,12 @@
       <c r="E593" t="inlineStr"/>
       <c r="F593" t="inlineStr">
         <is>
-          <t>忠孝東路與建國南路口</t>
+          <t>南京東路與建國北路口</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車</t>
         </is>
       </c>
       <c r="H593" t="inlineStr"/>
@@ -14336,7 +14306,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>內湖區</t>
         </is>
       </c>
       <c r="C594" t="inlineStr"/>
@@ -14344,12 +14314,12 @@
       <c r="E594" t="inlineStr"/>
       <c r="F594" t="inlineStr">
         <is>
-          <t>仁愛路與建國南路口</t>
+          <t>民權東路與舊宗路、行忠路口</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、路口未淨空</t>
         </is>
       </c>
       <c r="H594" t="inlineStr"/>
@@ -14371,12 +14341,12 @@
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr">
         <is>
-          <t>辛亥路與建國南路口</t>
+          <t>忠孝東路與敦化南路口(含敦化南路1段270巷與仁愛路4段71巷口)</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車、行經設有停車再開標誌、標字之交岔路口不依規定停讓</t>
         </is>
       </c>
       <c r="H595" t="inlineStr"/>
@@ -14390,7 +14360,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>士林區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C596" t="inlineStr"/>
@@ -14398,12 +14368,12 @@
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
-          <t>中山北路與劍潭路口</t>
+          <t>仁愛路、敦化南路口</t>
         </is>
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、違規停車、不依規定轉彎</t>
         </is>
       </c>
       <c r="H596" t="inlineStr"/>
@@ -14425,12 +14395,12 @@
       <c r="E597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
-          <t>和平東路與敦化南路口</t>
+          <t>基隆路與羅斯福路口</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、未保持路口淨空、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H597" t="inlineStr"/>
@@ -14444,7 +14414,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C598" t="inlineStr"/>
@@ -14452,7 +14422,7 @@
       <c r="E598" t="inlineStr"/>
       <c r="F598" t="inlineStr">
         <is>
-          <t>重慶北路與鄭州路口</t>
+          <t>忠孝東路與建國南路口</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
@@ -14471,7 +14441,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>內湖區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C599" t="inlineStr"/>
@@ -14479,12 +14449,12 @@
       <c r="E599" t="inlineStr"/>
       <c r="F599" t="inlineStr">
         <is>
-          <t>民權東路與成功路口</t>
+          <t>仁愛路與建國南路口</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H599" t="inlineStr"/>
@@ -14498,7 +14468,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C600" t="inlineStr"/>
@@ -14506,12 +14476,12 @@
       <c r="E600" t="inlineStr"/>
       <c r="F600" t="inlineStr">
         <is>
-          <t>中山南路與凱達格蘭大道口</t>
+          <t>辛亥路與建國南路口</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、行駛公車專用道</t>
+          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H600" t="inlineStr"/>
@@ -14525,7 +14495,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>士林區</t>
         </is>
       </c>
       <c r="C601" t="inlineStr"/>
@@ -14533,7 +14503,7 @@
       <c r="E601" t="inlineStr"/>
       <c r="F601" t="inlineStr">
         <is>
-          <t>辛亥路與復興南路口</t>
+          <t>中山北路與劍潭路口</t>
         </is>
       </c>
       <c r="G601" t="inlineStr">
@@ -14552,7 +14522,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C602" t="inlineStr"/>
@@ -14560,12 +14530,12 @@
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr">
         <is>
-          <t>塔城街與鄭州路口</t>
+          <t>和平東路與敦化南路口</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、未保持路口淨空、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H602" t="inlineStr"/>
@@ -14587,7 +14557,7 @@
       <c r="E603" t="inlineStr"/>
       <c r="F603" t="inlineStr">
         <is>
-          <t>汀州路與師大路口</t>
+          <t>重慶北路與鄭州路口</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -14606,7 +14576,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>內湖區</t>
         </is>
       </c>
       <c r="C604" t="inlineStr"/>
@@ -14614,12 +14584,12 @@
       <c r="E604" t="inlineStr"/>
       <c r="F604" t="inlineStr">
         <is>
-          <t>八德路與市民大道口</t>
+          <t>民權東路與成功路口</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H604" t="inlineStr"/>
@@ -14633,7 +14603,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C605" t="inlineStr"/>
@@ -14641,12 +14611,12 @@
       <c r="E605" t="inlineStr"/>
       <c r="F605" t="inlineStr">
         <is>
-          <t>和平東路與建國南路口</t>
+          <t>中山南路與凱達格蘭大道口</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、行駛公車專用道</t>
         </is>
       </c>
       <c r="H605" t="inlineStr"/>
@@ -14660,7 +14630,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>內湖區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C606" t="inlineStr"/>
@@ -14668,7 +14638,7 @@
       <c r="E606" t="inlineStr"/>
       <c r="F606" t="inlineStr">
         <is>
-          <t>安康路與康寧路口</t>
+          <t>辛亥路與復興南路口</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -14687,7 +14657,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>士林區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C607" t="inlineStr"/>
@@ -14695,7 +14665,7 @@
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr">
         <is>
-          <t>中山北路與褔國路口</t>
+          <t>塔城街與鄭州路口</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -14714,7 +14684,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C608" t="inlineStr"/>
@@ -14722,12 +14692,12 @@
       <c r="E608" t="inlineStr"/>
       <c r="F608" t="inlineStr">
         <is>
-          <t>市民大道與復興南路口</t>
+          <t>汀州路與師大路口</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H608" t="inlineStr"/>
@@ -14741,7 +14711,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C609" t="inlineStr"/>
@@ -14749,7 +14719,7 @@
       <c r="E609" t="inlineStr"/>
       <c r="F609" t="inlineStr">
         <is>
-          <t>忠孝東路與光復南路口</t>
+          <t>八德路與市民大道口</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -14768,7 +14738,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>士林區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C610" t="inlineStr"/>
@@ -14776,12 +14746,12 @@
       <c r="E610" t="inlineStr"/>
       <c r="F610" t="inlineStr">
         <is>
-          <t>中山北路與通河街口</t>
+          <t>和平東路與建國南路口</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
         </is>
       </c>
       <c r="H610" t="inlineStr"/>
@@ -14795,7 +14765,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>內湖區</t>
         </is>
       </c>
       <c r="C611" t="inlineStr"/>
@@ -14803,12 +14773,12 @@
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr">
         <is>
-          <t>鄭州路與環河北路口</t>
+          <t>安康路與康寧路口</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H611" t="inlineStr"/>
@@ -14822,7 +14792,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>士林區</t>
         </is>
       </c>
       <c r="C612" t="inlineStr"/>
@@ -14830,7 +14800,7 @@
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
         <is>
-          <t>忠孝西路與館前路口</t>
+          <t>中山北路與褔國路口</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -14849,7 +14819,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C613" t="inlineStr"/>
@@ -14857,12 +14827,12 @@
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr">
         <is>
-          <t>忠孝東路與復興南路口</t>
+          <t>市民大道與復興南路口</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
         </is>
       </c>
       <c r="H613" t="inlineStr"/>
@@ -14876,7 +14846,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>松山區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C614" t="inlineStr"/>
@@ -14884,12 +14854,12 @@
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr">
         <is>
-          <t>民權東路與敦化北路口</t>
+          <t>忠孝東路與光復南路口</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、路口未淨空</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H614" t="inlineStr"/>
@@ -14903,7 +14873,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>士林區</t>
         </is>
       </c>
       <c r="C615" t="inlineStr"/>
@@ -14911,7 +14881,7 @@
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr">
         <is>
-          <t>市民大道與金山北路口</t>
+          <t>中山北路與通河街口</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
@@ -14930,7 +14900,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C616" t="inlineStr"/>
@@ -14938,12 +14908,12 @@
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr">
         <is>
-          <t>民族東路與松江路口</t>
+          <t>鄭州路與環河北路口</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H616" t="inlineStr"/>
@@ -14957,7 +14927,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C617" t="inlineStr"/>
@@ -14965,12 +14935,12 @@
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr">
         <is>
-          <t>民權西路與重慶北路口</t>
+          <t>忠孝西路與館前路口</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H617" t="inlineStr"/>
@@ -14984,7 +14954,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C618" t="inlineStr"/>
@@ -14992,7 +14962,7 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr">
         <is>
-          <t>民權東路與復興北路口</t>
+          <t>忠孝東路與復興南路口</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
@@ -15011,7 +14981,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>松山區</t>
         </is>
       </c>
       <c r="C619" t="inlineStr"/>
@@ -15019,12 +14989,12 @@
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr">
         <is>
-          <t>長安東路與建國北路口</t>
+          <t>民權東路與敦化北路口</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、路口未淨空</t>
         </is>
       </c>
       <c r="H619" t="inlineStr"/>
@@ -15038,7 +15008,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C620" t="inlineStr"/>
@@ -15046,12 +15016,12 @@
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr">
         <is>
-          <t>信義路與新生南路口</t>
+          <t>市民大道與金山北路口</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、行駛公車專用道</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H620" t="inlineStr"/>
@@ -15065,7 +15035,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C621" t="inlineStr"/>
@@ -15073,12 +15043,12 @@
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr">
         <is>
-          <t>仁愛路與復興南路口</t>
+          <t>民族東路與松江路口</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H621" t="inlineStr"/>
@@ -15092,7 +15062,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>萬華區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C622" t="inlineStr"/>
@@ -15100,12 +15070,12 @@
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
-          <t>西園路與西藏路口</t>
+          <t>民權西路與重慶北路口</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
         </is>
       </c>
       <c r="H622" t="inlineStr"/>
@@ -15119,7 +15089,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C623" t="inlineStr"/>
@@ -15127,12 +15097,12 @@
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr">
         <is>
-          <t>信義路與敦化南路口</t>
+          <t>民權東路與復興北路口</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H623" t="inlineStr"/>
@@ -15146,7 +15116,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C624" t="inlineStr"/>
@@ -15154,7 +15124,7 @@
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr">
         <is>
-          <t>中華路與忠孝西路口</t>
+          <t>長安東路與建國北路口</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -15173,7 +15143,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C625" t="inlineStr"/>
@@ -15181,12 +15151,12 @@
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr">
         <is>
-          <t>長安東路與新生北路口</t>
+          <t>信義路與新生南路口</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、行駛公車專用道</t>
         </is>
       </c>
       <c r="H625" t="inlineStr"/>
@@ -15200,7 +15170,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C626" t="inlineStr"/>
@@ -15208,7 +15178,7 @@
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr">
         <is>
-          <t>天津街與市民大道口</t>
+          <t>仁愛路與復興南路口</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -15227,7 +15197,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>北投區</t>
+          <t>萬華區</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
@@ -15235,7 +15205,7 @@
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr">
         <is>
-          <t>大度路與中央北路口</t>
+          <t>西園路與西藏路口</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -15254,7 +15224,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>大安區</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
@@ -15262,12 +15232,12 @@
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr">
         <is>
-          <t>忠孝東路與新生南路口</t>
+          <t>信義路與敦化南路口</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、行駛公車專用道</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
         </is>
       </c>
       <c r="H628" t="inlineStr"/>
@@ -15281,7 +15251,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>萬華區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
@@ -15289,7 +15259,7 @@
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr">
         <is>
-          <t>中華路與愛國西路口</t>
+          <t>中華路與忠孝西路口</t>
         </is>
       </c>
       <c r="G629" t="inlineStr">
@@ -15308,7 +15278,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>大同區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
@@ -15316,7 +15286,7 @@
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr">
         <is>
-          <t>民族西路與承德路口</t>
+          <t>長安東路與新生北路口</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
@@ -15343,7 +15313,7 @@
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr">
         <is>
-          <t>民權東路與新生北路口</t>
+          <t>天津街與市民大道口</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -15362,7 +15332,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>內湖區</t>
+          <t>北投區</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
@@ -15370,7 +15340,7 @@
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr">
         <is>
-          <t>南京東路與舊宗路口</t>
+          <t>大度路與中央北路口</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
@@ -15389,7 +15359,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>松山區</t>
+          <t>中正區</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
@@ -15397,12 +15367,12 @@
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr">
         <is>
-          <t>市民大道與光復南路口</t>
+          <t>忠孝東路與新生南路口</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、行駛公車專用道</t>
         </is>
       </c>
       <c r="H633" t="inlineStr"/>
@@ -15416,7 +15386,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>中正區</t>
+          <t>萬華區</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
@@ -15424,7 +15394,7 @@
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr">
         <is>
-          <t>仁愛路與金山南路口</t>
+          <t>中華路與愛國西路口</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
@@ -15443,7 +15413,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>大同區</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
@@ -15451,12 +15421,12 @@
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr">
         <is>
-          <t>中山北路與民族西路口</t>
+          <t>民族西路與承德路口</t>
         </is>
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H635" t="inlineStr"/>
@@ -15470,7 +15440,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>大安區</t>
+          <t>中山區</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
@@ -15478,12 +15448,12 @@
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr">
         <is>
-          <t>信義路與復興南路口</t>
+          <t>民權東路與新生北路口</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+          <t>闖紅燈、不停讓行人、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H636" t="inlineStr"/>
@@ -15497,7 +15467,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>士林區</t>
+          <t>內湖區</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
@@ -15505,12 +15475,12 @@
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr">
         <is>
-          <t>基河路與劍潭路口</t>
+          <t>南京東路與舊宗路口</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車、路口未淨空</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H637" t="inlineStr"/>
@@ -15532,12 +15502,12 @@
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr">
         <is>
-          <t>南京東路與敦化北路口</t>
+          <t>市民大道與光復南路口</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、路口未淨空</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H638" t="inlineStr"/>
@@ -15559,16 +15529,151 @@
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>仁愛路與新生南路口</t>
+          <t>仁愛路與金山南路口</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、行駛公車專用道</t>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
         </is>
       </c>
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>臺北市</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>中山區</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>中山北路與民族西路口</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>闖紅燈、不停讓行人、不依規定轉彎</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr"/>
+      <c r="I640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>臺北市</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>大安區</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr"/>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>信義路與復興南路口</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr"/>
+      <c r="I641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>臺北市</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>士林區</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr"/>
+      <c r="D642" t="inlineStr"/>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>基河路與劍潭路口</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、違規停車、路口未淨空</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr"/>
+      <c r="I642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>臺北市</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>松山區</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>南京東路與敦化北路口</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、路口未淨空</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr"/>
+      <c r="I643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>臺北市</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>中正區</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>仁愛路與新生南路口</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>闖紅燈、不停讓行人、不依規定轉彎、不依標誌標線號誌指示行駛、行駛公車專用道</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr"/>
+      <c r="I644" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/split_data/input/all_cities/taipei.xlsx
+++ b/split_data/input/all_cities/taipei.xlsx
@@ -10254,7 +10254,7 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr">
         <is>
-          <t>中央北路三段近220巷口（往北投）</t>
+          <t>中央北路四段近60巷口（往關渡）</t>
         </is>
       </c>
       <c r="G412" t="n">
@@ -10275,7 +10275,7 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr">
         <is>
-          <t>中央北路四段近60巷口（往關渡）</t>
+          <t>大度路機車道﹝往淡水、迴轉道旁﹞</t>
         </is>
       </c>
       <c r="G413" t="n">
@@ -10296,7 +10296,7 @@
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr">
         <is>
-          <t>大度路機車道﹝往淡水、迴轉道旁﹞</t>
+          <t>大度路機車道﹝往台北、迴轉道旁﹞</t>
         </is>
       </c>
       <c r="G414" t="n">
@@ -10317,7 +10317,7 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr">
         <is>
-          <t>大度路機車道﹝往台北、迴轉道旁﹞</t>
+          <t>洲美快速道路﹝往北、近承德路匣道﹞</t>
         </is>
       </c>
       <c r="G415" t="n">
@@ -10338,7 +10338,7 @@
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr">
         <is>
-          <t>洲美快速道路﹝往北、近承德路匣道﹞</t>
+          <t>洲美快速道路﹝往南、近承德路匣道﹞</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -10359,7 +10359,7 @@
       <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr">
         <is>
-          <t>洲美快速道路﹝往南、近承德路匣道﹞</t>
+          <t>文林北路（往士林、近75巷口）</t>
         </is>
       </c>
       <c r="G417" t="n">
@@ -10380,7 +10380,7 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr">
         <is>
-          <t>文林北路（往士林、近75巷口）</t>
+          <t>承德路七段（往台北、近344巷口）</t>
         </is>
       </c>
       <c r="G418" t="n">
@@ -10401,7 +10401,7 @@
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr">
         <is>
-          <t>承德路七段（往台北、近344巷口）</t>
+          <t>承德路七段往淡水</t>
         </is>
       </c>
       <c r="G419" t="n">
@@ -10422,7 +10422,7 @@
       <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr">
         <is>
-          <t>承德路七段往淡水</t>
+          <t>行義路近300巷（往南）</t>
         </is>
       </c>
       <c r="G420" t="n">
@@ -10443,7 +10443,7 @@
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr">
         <is>
-          <t>行義路近300巷（往南）</t>
+          <t>行義路近260巷（往北）</t>
         </is>
       </c>
       <c r="G421" t="n">
@@ -10464,7 +10464,7 @@
       <c r="E422" t="inlineStr"/>
       <c r="F422" t="inlineStr">
         <is>
-          <t>行義路近260巷（往北）</t>
+          <t>竹子湖路16號旁（往金山）</t>
         </is>
       </c>
       <c r="G422" t="n">
@@ -10485,7 +10485,7 @@
       <c r="E423" t="inlineStr"/>
       <c r="F423" t="inlineStr">
         <is>
-          <t>竹子湖路16號旁（往金山）</t>
+          <t>竹子湖路112號旁（往台北）</t>
         </is>
       </c>
       <c r="G423" t="n">
@@ -10506,7 +10506,7 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr">
         <is>
-          <t>竹子湖路112號旁（往台北）</t>
+          <t>大業路527巷（往淡水、近23弄口）</t>
         </is>
       </c>
       <c r="G424" t="n">
@@ -10527,7 +10527,7 @@
       <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr">
         <is>
-          <t>大業路527巷（往淡水、近23弄口）</t>
+          <t>大業路527巷（往台北、近23弄口）</t>
         </is>
       </c>
       <c r="G425" t="n">
@@ -10548,7 +10548,7 @@
       <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr">
         <is>
-          <t>大業路527巷（往台北、近23弄口）</t>
+          <t>北投路一段（往北）</t>
         </is>
       </c>
       <c r="G426" t="n">
@@ -10569,7 +10569,7 @@
       <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr">
         <is>
-          <t>北投路一段（往北）</t>
+          <t>洲美街焚化爐前（往士林）</t>
         </is>
       </c>
       <c r="G427" t="n">
@@ -10590,7 +10590,7 @@
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
-          <t>洲美街焚化爐前（往士林）</t>
+          <t>學園路（往關渡）</t>
         </is>
       </c>
       <c r="G428" t="n">
@@ -10611,7 +10611,7 @@
       <c r="E429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
-          <t>學園路（往關渡）</t>
+          <t>北投路一段近87巷（往南）</t>
         </is>
       </c>
       <c r="G429" t="n">
@@ -10632,7 +10632,7 @@
       <c r="E430" t="inlineStr"/>
       <c r="F430" t="inlineStr">
         <is>
-          <t>北投路一段近87巷（往南）</t>
+          <t>石牌路二段324巷（往東）</t>
         </is>
       </c>
       <c r="G430" t="n">
@@ -10653,7 +10653,7 @@
       <c r="E431" t="inlineStr"/>
       <c r="F431" t="inlineStr">
         <is>
-          <t>石牌路二段324巷（往東）</t>
+          <t>行義路近241號（往南）</t>
         </is>
       </c>
       <c r="G431" t="n">
@@ -10674,7 +10674,7 @@
       <c r="E432" t="inlineStr"/>
       <c r="F432" t="inlineStr">
         <is>
-          <t>行義路近241號（往南）</t>
+          <t>新民路22巷口往西</t>
         </is>
       </c>
       <c r="G432" t="n">
@@ -10695,7 +10695,7 @@
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
         <is>
-          <t>新民路22巷口往西</t>
+          <t>稻香路260號往臺北</t>
         </is>
       </c>
       <c r="G433" t="n">
@@ -10716,7 +10716,7 @@
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr">
         <is>
-          <t>稻香路260號往臺北</t>
+          <t>大業路527巷101弄口往台北</t>
         </is>
       </c>
       <c r="G434" t="n">
@@ -10737,7 +10737,7 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr">
         <is>
-          <t>大業路527巷101弄口往台北</t>
+          <t>中央北路二段257巷往北（貴四橋旁）</t>
         </is>
       </c>
       <c r="G435" t="n">
@@ -10758,7 +10758,7 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往北（貴四橋旁）</t>
+          <t>中央北路二段257巷往南（貴四橋旁）</t>
         </is>
       </c>
       <c r="G436" t="n">
@@ -10779,7 +10779,7 @@
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr">
         <is>
-          <t>中央北路二段257巷往南（貴四橋旁）</t>
+          <t>承德路六段往北（近北科路口）</t>
         </is>
       </c>
       <c r="G437" t="n">
@@ -10800,7 +10800,7 @@
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr">
         <is>
-          <t>承德路六段往北（近北科路口）</t>
+          <t>福國路洲美快匝道口往東</t>
         </is>
       </c>
       <c r="G438" t="n">
@@ -10821,7 +10821,7 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr">
         <is>
-          <t>福國路洲美快匝道口往東</t>
+          <t>大業路527巷101弄口往關渡</t>
         </is>
       </c>
       <c r="G439" t="n">
@@ -10842,7 +10842,7 @@
       <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr">
         <is>
-          <t>大業路527巷101弄口往關渡</t>
+          <t>立賢路往社子（近168號）</t>
         </is>
       </c>
       <c r="G440" t="n">
@@ -10863,7 +10863,7 @@
       <c r="E441" t="inlineStr"/>
       <c r="F441" t="inlineStr">
         <is>
-          <t>立賢路往社子（近168號）</t>
+          <t>立賢路往北投（近91號）</t>
         </is>
       </c>
       <c r="G441" t="n">
@@ -10884,7 +10884,7 @@
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
-          <t>立賢路往北投（近91號）</t>
+          <t>中央北路四段近48號（往北投）</t>
         </is>
       </c>
       <c r="G442" t="n">
